--- a/data_craw/quarter/income_statement_quarter/hdb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/hdb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118900000000</v>
+        <v>124512000000</v>
       </c>
       <c r="C4" t="n">
-        <v>196880000000</v>
+        <v>302934000000</v>
       </c>
       <c r="D4" t="n">
-        <v>59010000000</v>
+        <v>80131000000</v>
       </c>
       <c r="E4" t="n">
-        <v>143637000000</v>
+        <v>121968000000</v>
       </c>
       <c r="F4" t="n">
-        <v>124512000000</v>
+        <v>85251000000</v>
       </c>
       <c r="G4" t="n">
-        <v>302934000000</v>
+        <v>208925000000</v>
       </c>
       <c r="H4" t="n">
-        <v>80131000000</v>
+        <v>119619000000</v>
       </c>
       <c r="I4" t="n">
-        <v>121968000000</v>
+        <v>144321000000</v>
       </c>
       <c r="J4" t="n">
-        <v>85251000000</v>
+        <v>160239000000</v>
       </c>
       <c r="K4" t="n">
-        <v>208925000000</v>
+        <v>163947000000</v>
       </c>
       <c r="L4" t="n">
-        <v>119619000000</v>
+        <v>143711000000</v>
       </c>
       <c r="M4" t="n">
-        <v>144321000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>160239000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>163947000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>143711000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>129369000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +620,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-8851000000</v>
+        <v>47795000000</v>
       </c>
       <c r="C5" t="n">
-        <v>-1118000000</v>
+        <v>44082000000</v>
       </c>
       <c r="D5" t="n">
-        <v>6269000000</v>
+        <v>28391000000</v>
       </c>
       <c r="E5" t="n">
-        <v>13104000000</v>
+        <v>33725000000</v>
       </c>
       <c r="F5" t="n">
-        <v>47795000000</v>
+        <v>58920000000</v>
       </c>
       <c r="G5" t="n">
-        <v>44082000000</v>
+        <v>192602000000</v>
       </c>
       <c r="H5" t="n">
-        <v>28391000000</v>
+        <v>21059000000</v>
       </c>
       <c r="I5" t="n">
-        <v>33725000000</v>
+        <v>40608000000</v>
       </c>
       <c r="J5" t="n">
-        <v>58920000000</v>
+        <v>20267000000</v>
       </c>
       <c r="K5" t="n">
-        <v>192602000000</v>
+        <v>-21898000000</v>
       </c>
       <c r="L5" t="n">
-        <v>21059000000</v>
+        <v>12105000000</v>
       </c>
       <c r="M5" t="n">
-        <v>40608000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>20267000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-21898000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>12105000000</v>
-      </c>
-      <c r="Q5" t="n">
         <v>7738000000</v>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,53 +690,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>989040000000</v>
+        <v>1178686000000</v>
       </c>
       <c r="C7" t="n">
-        <v>1256341000000</v>
+        <v>1146485000000</v>
       </c>
       <c r="D7" t="n">
-        <v>1001305000000</v>
+        <v>1680115000000</v>
       </c>
       <c r="E7" t="n">
-        <v>1320397000000</v>
+        <v>1671475000000</v>
       </c>
       <c r="F7" t="n">
-        <v>1178686000000</v>
+        <v>1513039000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1146485000000</v>
+        <v>1588870000000</v>
       </c>
       <c r="H7" t="n">
-        <v>1680115000000</v>
+        <v>2020439000000</v>
       </c>
       <c r="I7" t="n">
-        <v>1671475000000</v>
+        <v>2220093000000</v>
       </c>
       <c r="J7" t="n">
-        <v>1513039000000</v>
+        <v>2169487000000</v>
       </c>
       <c r="K7" t="n">
-        <v>1588870000000</v>
+        <v>1799451000000</v>
       </c>
       <c r="L7" t="n">
-        <v>2020439000000</v>
+        <v>2193712000000</v>
       </c>
       <c r="M7" t="n">
-        <v>2220093000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2169487000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1799451000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2193712000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>2179528000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -761,53 +737,45 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90358000000</v>
+        <v>87376000000</v>
       </c>
       <c r="C8" t="n">
-        <v>135303000000</v>
+        <v>88249000000</v>
       </c>
       <c r="D8" t="n">
-        <v>112676000000</v>
+        <v>116727000000</v>
       </c>
       <c r="E8" t="n">
-        <v>109847000000</v>
+        <v>119596000000</v>
       </c>
       <c r="F8" t="n">
-        <v>87376000000</v>
+        <v>81974000000</v>
       </c>
       <c r="G8" t="n">
-        <v>88249000000</v>
+        <v>81683000000</v>
       </c>
       <c r="H8" t="n">
-        <v>116727000000</v>
+        <v>102040000000</v>
       </c>
       <c r="I8" t="n">
-        <v>119596000000</v>
+        <v>140966000000</v>
       </c>
       <c r="J8" t="n">
-        <v>81974000000</v>
+        <v>153502000000</v>
       </c>
       <c r="K8" t="n">
-        <v>81683000000</v>
+        <v>63167000000</v>
       </c>
       <c r="L8" t="n">
-        <v>102040000000</v>
+        <v>105702000000</v>
       </c>
       <c r="M8" t="n">
-        <v>140966000000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>153502000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>63167000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>105702000000</v>
-      </c>
-      <c r="Q8" t="n">
         <v>20975000000</v>
       </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -818,26 +786,24 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>981</v>
+        <v>963</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>963</v>
+        <v>830</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>830</v>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
